--- a/raw.xlsx
+++ b/raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/notsocertainwind/Downloads/dwivedy dai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AA86248-96D3-0943-B53D-AD1BA01D4433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B162F426-891D-5840-9AD0-02A28ADC1BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16940" xr2:uid="{B289809D-5CA2-ED42-922D-588566FEF459}"/>
   </bookViews>
@@ -209,11 +209,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,7 +532,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,8 +612,8 @@
       <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2">
-        <v>111</v>
+      <c r="G2" s="4">
+        <v>111222</v>
       </c>
       <c r="H2" s="2">
         <v>222</v>
